--- a/biology/Médecine/Alexandre_Tcherniakhivski/Alexandre_Tcherniakhivski.xlsx
+++ b/biology/Médecine/Alexandre_Tcherniakhivski/Alexandre_Tcherniakhivski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Grigorievitch Tcherniakhivski (en russe : Александр Григорьевич Черняховский ; en ukrainien : Олександр Григорович Черняхівський, Oleksandr Hryhorovytch Tcherniakhivsky), né le 13 novembre 1869 à Mazepyntsi, dans le Raïon de Vassylkiv, région de Kiev et mort le 22 décembre 1939 à Kiev,  est un biologiste, médecin, histologiste, lexicographe, philologue, linguiste et traducteur ukrainien. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Tcherniakhivski est diplômé de l'université de Kiev en 1893. Il était membre du cercle littéraire "Pléiades". 
 À partir de 1918, il est professeur à l'Université nationale de médecine des Bogomolets. Il est l'organisateur de la section médicale de la Société scientifique ukrainienne de Kiev et premier président de l'Union panukrainienne des médecins ukrainiens, membre à part entière de la Société médicale nationale de Lviv. Il rejoint le Club ukrainien qui regroupe des intellectuels ukrainiens. 
